--- a/data/pca/factorExposure/factorExposure_2012-12-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-26.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0005347794352437505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001796582875612327</v>
+      </c>
+      <c r="C2">
+        <v>-0.03163782325023076</v>
+      </c>
+      <c r="D2">
+        <v>0.005321126072007367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0005980978515983457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006420480353310874</v>
+      </c>
+      <c r="C4">
+        <v>-0.08414110154588716</v>
+      </c>
+      <c r="D4">
+        <v>0.07893212325516978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-9.312633255211408e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01447320450542245</v>
+      </c>
+      <c r="C6">
+        <v>-0.114030934738654</v>
+      </c>
+      <c r="D6">
+        <v>0.03313863120528926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001749593852512823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005160742909877654</v>
+      </c>
+      <c r="C7">
+        <v>-0.05825503879403764</v>
+      </c>
+      <c r="D7">
+        <v>0.03059826159575238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0009101083932957297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005868404111231827</v>
+      </c>
+      <c r="C8">
+        <v>-0.03783835489657612</v>
+      </c>
+      <c r="D8">
+        <v>0.04037203426055465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003304969711956185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004579866725084081</v>
+      </c>
+      <c r="C9">
+        <v>-0.07040549335743458</v>
+      </c>
+      <c r="D9">
+        <v>0.07284207577205262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002739347510382472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005410899464383768</v>
+      </c>
+      <c r="C10">
+        <v>-0.05793834084420162</v>
+      </c>
+      <c r="D10">
+        <v>-0.198805289788181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002678513700111544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005879141264912694</v>
+      </c>
+      <c r="C11">
+        <v>-0.07978914626820142</v>
+      </c>
+      <c r="D11">
+        <v>0.06024715471718313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004543646142201109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004197322712071787</v>
+      </c>
+      <c r="C12">
+        <v>-0.06414189213450025</v>
+      </c>
+      <c r="D12">
+        <v>0.04645475218857494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001949535787474366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009160734830035199</v>
+      </c>
+      <c r="C13">
+        <v>-0.06903297515612923</v>
+      </c>
+      <c r="D13">
+        <v>0.05707852475206156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0008698884695285924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001648206981078943</v>
+      </c>
+      <c r="C14">
+        <v>-0.04538853045333673</v>
+      </c>
+      <c r="D14">
+        <v>0.004198406276173263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006854433013239936</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006105126739209735</v>
+      </c>
+      <c r="C15">
+        <v>-0.04207760268931956</v>
+      </c>
+      <c r="D15">
+        <v>0.02827087341333717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0007544161438184766</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005182445958485622</v>
+      </c>
+      <c r="C16">
+        <v>-0.06513355728668807</v>
+      </c>
+      <c r="D16">
+        <v>0.04831529299220739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0002144462312464565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009103345995381951</v>
+      </c>
+      <c r="C20">
+        <v>-0.06564898649370039</v>
+      </c>
+      <c r="D20">
+        <v>0.04202952832870886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005905750351845255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.01006408829621903</v>
+      </c>
+      <c r="C21">
+        <v>-0.02118553116979946</v>
+      </c>
+      <c r="D21">
+        <v>0.03731861944915703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01600120603156261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006572235602953524</v>
+      </c>
+      <c r="C22">
+        <v>-0.09397700892952554</v>
+      </c>
+      <c r="D22">
+        <v>0.1075701851715151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01630107982443265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006388202253861638</v>
+      </c>
+      <c r="C23">
+        <v>-0.09478484862229346</v>
+      </c>
+      <c r="D23">
+        <v>0.1075978248639518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001338190642808491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005641510695306074</v>
+      </c>
+      <c r="C24">
+        <v>-0.07644349756262372</v>
+      </c>
+      <c r="D24">
+        <v>0.06342906442227091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003978271574490555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003185299133653147</v>
+      </c>
+      <c r="C25">
+        <v>-0.07859200317417074</v>
+      </c>
+      <c r="D25">
+        <v>0.06685494796303704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004460705042485805</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003752190636959305</v>
+      </c>
+      <c r="C26">
+        <v>-0.04117994953289926</v>
+      </c>
+      <c r="D26">
+        <v>0.02333622474470133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004613028022936482</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.00073532001044356</v>
+      </c>
+      <c r="C28">
+        <v>-0.1065116086614299</v>
+      </c>
+      <c r="D28">
+        <v>-0.3167946329651737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.00130895872895693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003445362971456781</v>
+      </c>
+      <c r="C29">
+        <v>-0.05088835072490024</v>
+      </c>
+      <c r="D29">
+        <v>0.007645300347712388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003033893626449871</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009672953274823155</v>
+      </c>
+      <c r="C30">
+        <v>-0.1416538345128565</v>
+      </c>
+      <c r="D30">
+        <v>0.09385541030201454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001122237992054368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006346759939125468</v>
+      </c>
+      <c r="C31">
+        <v>-0.0445182277292059</v>
+      </c>
+      <c r="D31">
+        <v>0.03084419625916055</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005301328252322986</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.00422512990647875</v>
+      </c>
+      <c r="C32">
+        <v>-0.04028046290192917</v>
+      </c>
+      <c r="D32">
+        <v>0.01934755650586107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002614978735069839</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008647163210966003</v>
+      </c>
+      <c r="C33">
+        <v>-0.08649468562597902</v>
+      </c>
+      <c r="D33">
+        <v>0.06603242581203975</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004472909160531694</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004092257241297833</v>
+      </c>
+      <c r="C34">
+        <v>-0.05813392664021319</v>
+      </c>
+      <c r="D34">
+        <v>0.05404271124839861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001339779567642394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005072096883537504</v>
+      </c>
+      <c r="C35">
+        <v>-0.04038494510171748</v>
+      </c>
+      <c r="D35">
+        <v>0.0166711793019335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003683737517867878</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001070090636622985</v>
+      </c>
+      <c r="C36">
+        <v>-0.02456549632632162</v>
+      </c>
+      <c r="D36">
+        <v>0.02094111263545084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002610924424850062</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009497043950863567</v>
+      </c>
+      <c r="C38">
+        <v>-0.03420172318155642</v>
+      </c>
+      <c r="D38">
+        <v>0.01404799347325796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01142005607888413</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0003366189627206625</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156789760504985</v>
+      </c>
+      <c r="D39">
+        <v>0.07298736800294132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009487743283508156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.0028410583917779</v>
+      </c>
+      <c r="C40">
+        <v>-0.0901389056891878</v>
+      </c>
+      <c r="D40">
+        <v>0.01016051088831481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-1.910524439322002e-06</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007354139257771329</v>
+      </c>
+      <c r="C41">
+        <v>-0.03831394381622438</v>
+      </c>
+      <c r="D41">
+        <v>0.03583545771755217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00297306457792589</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004164316881446372</v>
+      </c>
+      <c r="C43">
+        <v>-0.05352842834126748</v>
+      </c>
+      <c r="D43">
+        <v>0.02460629230457147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004443283857691459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003579470018301435</v>
+      </c>
+      <c r="C44">
+        <v>-0.109366846523292</v>
+      </c>
+      <c r="D44">
+        <v>0.06565826390037277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001173489681543167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002312025686126426</v>
+      </c>
+      <c r="C46">
+        <v>-0.03328011247403088</v>
+      </c>
+      <c r="D46">
+        <v>0.0347323461272885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0003068313947192711</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002806589947911812</v>
+      </c>
+      <c r="C47">
+        <v>-0.03745788344550069</v>
+      </c>
+      <c r="D47">
+        <v>0.02186859206630466</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003866632922182567</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006747910215321208</v>
+      </c>
+      <c r="C48">
+        <v>-0.03103109869379444</v>
+      </c>
+      <c r="D48">
+        <v>0.03219467400986625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01208772456691274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01581311310497831</v>
+      </c>
+      <c r="C49">
+        <v>-0.1850007710091904</v>
+      </c>
+      <c r="D49">
+        <v>0.01686260398258478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.00154922513585726</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003733337194430759</v>
+      </c>
+      <c r="C50">
+        <v>-0.04348898200825854</v>
+      </c>
+      <c r="D50">
+        <v>0.03665837484293281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007708209643072551</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004494643976802387</v>
+      </c>
+      <c r="C51">
+        <v>-0.02597417382374564</v>
+      </c>
+      <c r="D51">
+        <v>0.02015127816362208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008709463148637638</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02129120332859261</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695336536590827</v>
+      </c>
+      <c r="D53">
+        <v>0.02683960041866724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0009974592320980548</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00886938127113371</v>
+      </c>
+      <c r="C54">
+        <v>-0.05417004702081584</v>
+      </c>
+      <c r="D54">
+        <v>0.04380900840288456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003444800416314676</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009841476646181908</v>
+      </c>
+      <c r="C55">
+        <v>-0.1092806551578877</v>
+      </c>
+      <c r="D55">
+        <v>0.03984422721925471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002620210184659657</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02040335657966014</v>
+      </c>
+      <c r="C56">
+        <v>-0.1734558422408827</v>
+      </c>
+      <c r="D56">
+        <v>0.02159655352605231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006781803817983371</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01989047289965064</v>
+      </c>
+      <c r="C58">
+        <v>-0.1119803311068194</v>
+      </c>
+      <c r="D58">
+        <v>0.04526900897996364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006463258500265081</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01005121485054152</v>
+      </c>
+      <c r="C59">
+        <v>-0.1639338971365367</v>
+      </c>
+      <c r="D59">
+        <v>-0.3243721866259014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00379876137436316</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02456238825043485</v>
+      </c>
+      <c r="C60">
+        <v>-0.2225773267464385</v>
+      </c>
+      <c r="D60">
+        <v>0.0333593196164391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01393642831664144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001559830149536227</v>
+      </c>
+      <c r="C61">
+        <v>-0.09486037179130465</v>
+      </c>
+      <c r="D61">
+        <v>0.05486873968371709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1629484250051658</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1452759311528422</v>
+      </c>
+      <c r="C62">
+        <v>-0.09410991976256539</v>
+      </c>
+      <c r="D62">
+        <v>0.041896097015369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0005357549273021915</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006416797795613169</v>
+      </c>
+      <c r="C63">
+        <v>-0.05487742337805245</v>
+      </c>
+      <c r="D63">
+        <v>0.02863232020625337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0007030101722898462</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01552926420626086</v>
+      </c>
+      <c r="C64">
+        <v>-0.1049177763319168</v>
+      </c>
+      <c r="D64">
+        <v>0.0583383598053489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002784929393451754</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01835344717419556</v>
+      </c>
+      <c r="C65">
+        <v>-0.1245493833267051</v>
+      </c>
+      <c r="D65">
+        <v>0.02088248491030285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007457607105095641</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.0133722544237759</v>
+      </c>
+      <c r="C66">
+        <v>-0.1597010406395537</v>
+      </c>
+      <c r="D66">
+        <v>0.1112214405269359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003681428562569155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01573510643704614</v>
+      </c>
+      <c r="C67">
+        <v>-0.06508428166678037</v>
+      </c>
+      <c r="D67">
+        <v>0.0258650386297243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00586370229088347</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0008017092078409678</v>
+      </c>
+      <c r="C68">
+        <v>-0.08679293586109441</v>
+      </c>
+      <c r="D68">
+        <v>-0.2601187146417175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001918724174638452</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006333897614440019</v>
+      </c>
+      <c r="C69">
+        <v>-0.05050578771865514</v>
+      </c>
+      <c r="D69">
+        <v>0.04034614718988856</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0001150656773398463</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001844594829474811</v>
+      </c>
+      <c r="C70">
+        <v>-0.002725575743855307</v>
+      </c>
+      <c r="D70">
+        <v>0.001189323660332984</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0001279109364843861</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005901675504085563</v>
+      </c>
+      <c r="C71">
+        <v>-0.09425041275515418</v>
+      </c>
+      <c r="D71">
+        <v>-0.3064212938454622</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003998644661542676</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01656806129742742</v>
+      </c>
+      <c r="C72">
+        <v>-0.1536003059906941</v>
+      </c>
+      <c r="D72">
+        <v>0.0217129655734648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01144029077219494</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03148548226028035</v>
+      </c>
+      <c r="C73">
+        <v>-0.2803617595309909</v>
+      </c>
+      <c r="D73">
+        <v>0.0544458838838322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004720854711992697</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002197334436970523</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046344560768549</v>
+      </c>
+      <c r="D74">
+        <v>0.03603233906282387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002529412749247747</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01124544695622111</v>
+      </c>
+      <c r="C75">
+        <v>-0.1244830423389229</v>
+      </c>
+      <c r="D75">
+        <v>0.02342861401831351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008887846693305832</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02210070059250928</v>
+      </c>
+      <c r="C76">
+        <v>-0.1484910319591774</v>
+      </c>
+      <c r="D76">
+        <v>0.05872387112686103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001644806804669056</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02370718692303565</v>
+      </c>
+      <c r="C77">
+        <v>-0.1224187550939495</v>
+      </c>
+      <c r="D77">
+        <v>0.09465036153001548</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007328288713582829</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01496176248578169</v>
+      </c>
+      <c r="C78">
+        <v>-0.09566456266526426</v>
+      </c>
+      <c r="D78">
+        <v>0.07113651467581297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02316513459698279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03803491545562219</v>
+      </c>
+      <c r="C79">
+        <v>-0.1567480772358936</v>
+      </c>
+      <c r="D79">
+        <v>0.0318105107943531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006800554659820999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.0104395124193964</v>
+      </c>
+      <c r="C80">
+        <v>-0.03989030754862099</v>
+      </c>
+      <c r="D80">
+        <v>0.02762442055672225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0005810520773296201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01557780997466924</v>
+      </c>
+      <c r="C81">
+        <v>-0.1266787168837036</v>
+      </c>
+      <c r="D81">
+        <v>0.04018938761308862</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005631430260756798</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0201561500632604</v>
+      </c>
+      <c r="C82">
+        <v>-0.1414521706765707</v>
+      </c>
+      <c r="D82">
+        <v>0.03566961902488289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009642853963664379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01005639464592461</v>
+      </c>
+      <c r="C83">
+        <v>-0.05526827267262303</v>
+      </c>
+      <c r="D83">
+        <v>0.05073808841048499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01338809764825471</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01169088283194716</v>
+      </c>
+      <c r="C84">
+        <v>-0.0370761312253429</v>
+      </c>
+      <c r="D84">
+        <v>-0.009476846024190147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01398351990210799</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02855749585909778</v>
+      </c>
+      <c r="C85">
+        <v>-0.1241290160657995</v>
+      </c>
+      <c r="D85">
+        <v>0.04627420978059577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001438656481180739</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.00597197705037475</v>
+      </c>
+      <c r="C86">
+        <v>-0.0495956725198456</v>
+      </c>
+      <c r="D86">
+        <v>0.02992755425927246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003511861730898238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01035814156639219</v>
+      </c>
+      <c r="C87">
+        <v>-0.1282291052132657</v>
+      </c>
+      <c r="D87">
+        <v>0.07558447104723344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01152247719286926</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002799074692306996</v>
+      </c>
+      <c r="C88">
+        <v>-0.06497017877338693</v>
+      </c>
+      <c r="D88">
+        <v>0.01752622024509631</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01307604143234403</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001039383364905018</v>
+      </c>
+      <c r="C89">
+        <v>-0.1466948224759685</v>
+      </c>
+      <c r="D89">
+        <v>-0.3395865372272253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0005076633022841097</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007225262211558336</v>
+      </c>
+      <c r="C90">
+        <v>-0.1206406774754492</v>
+      </c>
+      <c r="D90">
+        <v>-0.3192476908144204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006651387326762172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01060867291154634</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002092124507422</v>
+      </c>
+      <c r="D91">
+        <v>0.02119005800439308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007294257959059501</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001256380677873507</v>
+      </c>
+      <c r="C92">
+        <v>-0.135132568324852</v>
+      </c>
+      <c r="D92">
+        <v>-0.3273003816290599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-1.711382446514743e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005131490266053253</v>
+      </c>
+      <c r="C93">
+        <v>-0.1049453480835965</v>
+      </c>
+      <c r="D93">
+        <v>-0.3015298251566894</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003679295225997661</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02286311843034877</v>
+      </c>
+      <c r="C94">
+        <v>-0.1464246038095549</v>
+      </c>
+      <c r="D94">
+        <v>0.05105434386662454</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004886849822462919</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01669218924420935</v>
+      </c>
+      <c r="C95">
+        <v>-0.1250185384200033</v>
+      </c>
+      <c r="D95">
+        <v>0.05685829969480282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001415726451935634</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03686342584994477</v>
+      </c>
+      <c r="C97">
+        <v>-0.214312030701179</v>
+      </c>
+      <c r="D97">
+        <v>0.0004162667262609372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002911566119816982</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03728271099920695</v>
+      </c>
+      <c r="C98">
+        <v>-0.2495720312390466</v>
+      </c>
+      <c r="D98">
+        <v>0.04841698716855867</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9849496168910766</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9818788189483378</v>
+      </c>
+      <c r="C99">
+        <v>0.1190857008844022</v>
+      </c>
+      <c r="D99">
+        <v>-0.02717410281625444</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001208139545000226</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003482983116226056</v>
+      </c>
+      <c r="C101">
+        <v>-0.05106459344854491</v>
+      </c>
+      <c r="D101">
+        <v>0.00778586020952121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
